--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1377103.560098322</v>
+        <v>1372657.137249723</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.0798671</v>
+        <v>29913606.07986708</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938643</v>
+        <v>7134934.855938644</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4238731.617824479</v>
+        <v>4238731.617824478</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>89.16078790745213</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.1501562987744</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T12" t="n">
         <v>136.0833327936195</v>
@@ -1536,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>29.89945502751219</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>81.65548318555345</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T13" t="n">
         <v>237.0153716433569</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>194.8329283335892</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
-        <v>274.1005558094662</v>
+        <v>94.44522096947104</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T15" t="n">
         <v>136.0833327936195</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
-        <v>2.387827104658413</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>48.33144559683335</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>391.9877439596161</v>
       </c>
       <c r="D17" t="n">
-        <v>361.294858491149</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
-        <v>134.26258275451</v>
+        <v>74.58863370973452</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>207.4114087148442</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,10 +2083,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>135.4642267411056</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>25.61218259820726</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,7 +2250,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U22" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>67.23382785512645</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.41708236069404</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>48.61956546275708</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T23" t="n">
-        <v>148.4933819011973</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2484,13 +2484,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H25" t="n">
         <v>134.26258275451</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.62605313342555</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>152.5650864830671</v>
@@ -2532,19 +2532,19 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>180.91194718495</v>
       </c>
       <c r="W25" t="n">
-        <v>44.38443796478968</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>162.5327658493858</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>36.31444054026497</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>76.58886667643748</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
         <v>277.3329370021073</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.1796668123377</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>213.2034362734907</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
-        <v>17.78611009886184</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>80.19101321112964</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>158.5359846485977</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>373.2443519368057</v>
+        <v>376.7112071208944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H34" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.62605313342555</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>74.5886337097355</v>
       </c>
       <c r="T34" t="n">
-        <v>44.53263894301018</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U34" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3268,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2657302332918</v>
+        <v>58.31251818775814</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>206.4838022523163</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3438,10 +3438,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3329370021073</v>
+        <v>192.8971658567888</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.8010284053399</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>149.8302100450615</v>
+        <v>68.20460941214689</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>53.34899635109565</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>236.7409666433931</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>372.3297997035938</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>129.3969369360993</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.6089649852995</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>137.7318631820215</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5650864830671</v>
+        <v>48.5972763604917</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.5113284862369</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>198.6270960448471</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0153716433569</v>
+        <v>147.1675625711054</v>
       </c>
       <c r="U46" t="n">
-        <v>83.12049145064508</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.83330772426899</v>
+        <v>959.4759468632525</v>
       </c>
       <c r="C11" t="n">
-        <v>43.83330772426899</v>
+        <v>959.4759468632525</v>
       </c>
       <c r="D11" t="n">
-        <v>43.83330772426899</v>
+        <v>536.1833260482528</v>
       </c>
       <c r="E11" t="n">
-        <v>43.83330772426899</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="F11" t="n">
-        <v>43.83330772426899</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G11" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I11" t="n">
-        <v>87.1076127164385</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804922</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M11" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N11" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O11" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P11" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q11" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R11" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U11" t="n">
-        <v>1933.474512490925</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V11" t="n">
-        <v>1575.985097617174</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="W11" t="n">
-        <v>1179.593747917521</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="X11" t="n">
-        <v>767.8737490852682</v>
+        <v>1364.813216908362</v>
       </c>
       <c r="Y11" t="n">
-        <v>463.6816720157991</v>
+        <v>959.4759468632525</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D12" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E12" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F12" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G12" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I12" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J12" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K12" t="n">
-        <v>320.938184101358</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L12" t="n">
-        <v>532.1149872941039</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M12" t="n">
-        <v>781.693847131716</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N12" t="n">
-        <v>1040.219721542963</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O12" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P12" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R12" t="n">
         <v>1815.956238873899</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.5687458191244</v>
+        <v>544.9428839024431</v>
       </c>
       <c r="C13" t="n">
-        <v>444.5961826980404</v>
+        <v>372.9703207813591</v>
       </c>
       <c r="D13" t="n">
-        <v>281.2794098248111</v>
+        <v>209.6535479081298</v>
       </c>
       <c r="E13" t="n">
-        <v>281.2794098248111</v>
+        <v>179.45207818337</v>
       </c>
       <c r="F13" t="n">
-        <v>281.2794098248111</v>
+        <v>179.45207818337</v>
       </c>
       <c r="G13" t="n">
-        <v>115.9421996114787</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J13" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>418.3963088502695</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L13" t="n">
-        <v>907.107593591763</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M13" t="n">
-        <v>1439.600757751073</v>
+        <v>1367.005798308133</v>
       </c>
       <c r="N13" t="n">
-        <v>1557.006741572472</v>
+        <v>1484.411782129532</v>
       </c>
       <c r="O13" t="n">
-        <v>1740.927831326519</v>
+        <v>1589.554333948618</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.554082608812</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
@@ -5226,25 +5226,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2109.185100167436</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.775633861015</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.641354060906</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.929886668935</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.077482841448</v>
+        <v>961.4516209247668</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.077482841448</v>
+        <v>961.4516209247668</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.7347145311901</v>
+        <v>735.1088526145088</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1771.817021921919</v>
+        <v>968.421867208709</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.91629193522</v>
+        <v>541.5211372220092</v>
       </c>
       <c r="D14" t="n">
-        <v>1148.115354224523</v>
+        <v>541.5211372220092</v>
       </c>
       <c r="E14" t="n">
-        <v>1148.115354224523</v>
+        <v>541.5211372220092</v>
       </c>
       <c r="F14" t="n">
-        <v>722.9911724139236</v>
+        <v>541.5211372220092</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7025560166592</v>
+        <v>139.2325208247448</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J14" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M14" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N14" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O14" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P14" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q14" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R14" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V14" t="n">
-        <v>2191.665386213449</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="W14" t="n">
-        <v>2191.665386213449</v>
+        <v>1380.141866040962</v>
       </c>
       <c r="X14" t="n">
-        <v>2191.665386213449</v>
+        <v>968.421867208709</v>
       </c>
       <c r="Y14" t="n">
-        <v>2191.665386213449</v>
+        <v>968.421867208709</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D15" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E15" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F15" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J15" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153553</v>
       </c>
       <c r="K15" t="n">
-        <v>297.4808782569462</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L15" t="n">
-        <v>508.6576814496921</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M15" t="n">
-        <v>758.2365412873041</v>
+        <v>781.6938471317156</v>
       </c>
       <c r="N15" t="n">
-        <v>1016.762415698551</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O15" t="n">
-        <v>1249.652366935845</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P15" t="n">
-        <v>1433.425461480025</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R15" t="n">
         <v>1815.956238873899</v>
@@ -5424,7 +5424,7 @@
         <v>588.7599545093517</v>
       </c>
       <c r="F16" t="n">
-        <v>416.8981802839122</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G16" t="n">
         <v>251.5609700705797</v>
@@ -5433,46 +5433,46 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J16" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K16" t="n">
-        <v>249.0354163844683</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L16" t="n">
-        <v>371.5335915770476</v>
+        <v>522.9070889549459</v>
       </c>
       <c r="M16" t="n">
-        <v>904.0267557363577</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.465662399637</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O16" t="n">
-        <v>1902.310538521927</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P16" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R16" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S16" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T16" t="n">
-        <v>2029.464409727438</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U16" t="n">
-        <v>1749.33012992733</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="V16" t="n">
-        <v>1749.33012992733</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="W16" t="n">
         <v>1749.33012992733</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.7776092304802</v>
+        <v>1714.174266322835</v>
       </c>
       <c r="C17" t="n">
-        <v>408.7776092304802</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D17" t="n">
-        <v>43.83330772426899</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E17" t="n">
-        <v>43.83330772426899</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N17" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P17" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q17" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R17" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T17" t="n">
-        <v>1979.715642681246</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U17" t="n">
-        <v>1979.715642681246</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.226227807496</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="W17" t="n">
-        <v>1225.834878107843</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="X17" t="n">
-        <v>814.1148792755898</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="Y17" t="n">
-        <v>408.7776092304802</v>
+        <v>2134.022630614365</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J18" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K18" t="n">
-        <v>521.9522409288484</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L18" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>758.7120802903327</v>
+        <v>456.4851353109424</v>
       </c>
       <c r="C19" t="n">
-        <v>586.7395171692486</v>
+        <v>284.5125721898585</v>
       </c>
       <c r="D19" t="n">
-        <v>423.4227442960193</v>
+        <v>284.5125721898585</v>
       </c>
       <c r="E19" t="n">
-        <v>423.4227442960193</v>
+        <v>284.5125721898585</v>
       </c>
       <c r="F19" t="n">
-        <v>251.5609700705797</v>
+        <v>284.5125721898585</v>
       </c>
       <c r="G19" t="n">
-        <v>251.5609700705797</v>
+        <v>119.1753619765261</v>
       </c>
       <c r="H19" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K19" t="n">
-        <v>249.0354163844683</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L19" t="n">
-        <v>361.3578075347969</v>
+        <v>936.4425694177677</v>
       </c>
       <c r="M19" t="n">
-        <v>893.8509716941071</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N19" t="n">
-        <v>1258.082955204228</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O19" t="n">
-        <v>1740.927831326519</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P19" t="n">
-        <v>2140.554082608812</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T19" t="n">
-        <v>1946.573037954073</v>
+        <v>1952.255919907027</v>
       </c>
       <c r="U19" t="n">
-        <v>1666.438758153965</v>
+        <v>1672.121640106919</v>
       </c>
       <c r="V19" t="n">
-        <v>1384.727290761994</v>
+        <v>1390.410172714948</v>
       </c>
       <c r="W19" t="n">
-        <v>1384.727290761994</v>
+        <v>1115.557768887461</v>
       </c>
       <c r="X19" t="n">
-        <v>1175.220817312656</v>
+        <v>872.993872333266</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.8780490023983</v>
+        <v>646.6511040230081</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.2461059321332</v>
+        <v>1455.983392600311</v>
       </c>
       <c r="C20" t="n">
-        <v>871.2461059321332</v>
+        <v>1029.082662613612</v>
       </c>
       <c r="D20" t="n">
-        <v>871.2461059321332</v>
+        <v>605.7900417986118</v>
       </c>
       <c r="E20" t="n">
-        <v>871.2461059321332</v>
+        <v>605.7900417986118</v>
       </c>
       <c r="F20" t="n">
-        <v>446.1219241215334</v>
+        <v>180.665859988012</v>
       </c>
       <c r="G20" t="n">
-        <v>43.83330772426899</v>
+        <v>180.665859988012</v>
       </c>
       <c r="H20" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="I20" t="n">
-        <v>87.1076127164381</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037497</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804928</v>
       </c>
       <c r="L20" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050664</v>
       </c>
       <c r="M20" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N20" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O20" t="n">
         <v>1667.064768900565</v>
@@ -5785,19 +5785,19 @@
         <v>2134.022630614366</v>
       </c>
       <c r="U20" t="n">
-        <v>2134.022630614366</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="V20" t="n">
-        <v>2134.022630614366</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="W20" t="n">
-        <v>2108.151739101026</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="X20" t="n">
-        <v>1696.431740268773</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="Y20" t="n">
-        <v>1291.094470223663</v>
+        <v>1875.831756891841</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.9202861374791</v>
+        <v>753.0585119120395</v>
       </c>
       <c r="C22" t="n">
-        <v>752.9477230163951</v>
+        <v>581.0859487909555</v>
       </c>
       <c r="D22" t="n">
-        <v>589.6309501431658</v>
+        <v>417.7691759177262</v>
       </c>
       <c r="E22" t="n">
-        <v>423.4227442960193</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="F22" t="n">
         <v>251.5609700705797</v>
@@ -5910,25 +5910,25 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J22" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K22" t="n">
-        <v>249.0354163844683</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L22" t="n">
-        <v>737.7467011259619</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M22" t="n">
-        <v>856.7043848224502</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N22" t="n">
-        <v>1372.143291485729</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O22" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P22" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q22" t="n">
         <v>2191.665386213449</v>
@@ -5940,22 +5940,22 @@
         <v>2031.8763562978</v>
       </c>
       <c r="T22" t="n">
-        <v>2031.8763562978</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.742076497692</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="V22" t="n">
-        <v>1470.030609105721</v>
+        <v>1444.41965276185</v>
       </c>
       <c r="W22" t="n">
-        <v>1195.178205278234</v>
+        <v>1169.567248934363</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6143087240388</v>
+        <v>1169.567248934363</v>
       </c>
       <c r="Y22" t="n">
-        <v>924.9202861374791</v>
+        <v>943.2244806241051</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>470.7340377109689</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="C23" t="n">
         <v>43.83330772426899</v>
@@ -5986,55 +5986,55 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643842</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J23" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7747784804925</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L23" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M23" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N23" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O23" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R23" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S23" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T23" t="n">
-        <v>2041.672071161735</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U23" t="n">
-        <v>2041.672071161735</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V23" t="n">
-        <v>1684.182656287984</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W23" t="n">
-        <v>1287.791306588331</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="X23" t="n">
-        <v>876.0713077560786</v>
+        <v>498.2812499539818</v>
       </c>
       <c r="Y23" t="n">
-        <v>470.7340377109689</v>
+        <v>92.94397990887211</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J24" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K24" t="n">
-        <v>297.4808782569461</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6576814496919</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M24" t="n">
-        <v>758.236541287304</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N24" t="n">
-        <v>1016.762415698551</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O24" t="n">
-        <v>1368.668229322841</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P24" t="n">
-        <v>1552.441323867022</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q24" t="n">
         <v>1667.176901360697</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>753.0585119120395</v>
+        <v>924.049290503665</v>
       </c>
       <c r="C25" t="n">
-        <v>581.0859487909555</v>
+        <v>752.076727382581</v>
       </c>
       <c r="D25" t="n">
-        <v>417.7691759177262</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="E25" t="n">
-        <v>251.5609700705797</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F25" t="n">
-        <v>251.5609700705797</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G25" t="n">
         <v>251.5609700705797</v>
@@ -6147,52 +6147,52 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J25" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K25" t="n">
-        <v>359.9904763162334</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L25" t="n">
-        <v>472.3128674665619</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M25" t="n">
-        <v>591.2705511630502</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.709457826329</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O25" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q25" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S25" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T25" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U25" t="n">
-        <v>1512.332610191271</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="V25" t="n">
-        <v>1230.6211427993</v>
+        <v>1615.410431353476</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.7883771783</v>
+        <v>1340.558027525989</v>
       </c>
       <c r="X25" t="n">
-        <v>943.2244806241051</v>
+        <v>1340.558027525989</v>
       </c>
       <c r="Y25" t="n">
-        <v>943.2244806241051</v>
+        <v>1114.215259215731</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>910.0012487862346</v>
+        <v>1356.684851449086</v>
       </c>
       <c r="C26" t="n">
-        <v>910.0012487862346</v>
+        <v>929.7841214623859</v>
       </c>
       <c r="D26" t="n">
-        <v>910.0012487862346</v>
+        <v>506.4915006473861</v>
       </c>
       <c r="E26" t="n">
-        <v>745.826737827259</v>
+        <v>80.51456079524371</v>
       </c>
       <c r="F26" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G26" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H26" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643842</v>
       </c>
       <c r="J26" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804925</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050661</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M26" t="n">
         <v>1043.801082832444</v>
@@ -6244,10 +6244,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P26" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q26" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R26" t="n">
         <v>2191.665386213449</v>
@@ -6256,22 +6256,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T26" t="n">
-        <v>1922.072887082163</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U26" t="n">
-        <v>1663.882013359638</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V26" t="n">
-        <v>1306.392598485888</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="W26" t="n">
-        <v>910.0012487862346</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="X26" t="n">
-        <v>910.0012487862346</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="Y26" t="n">
-        <v>910.0012487862346</v>
+        <v>1776.533215740616</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K27" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M27" t="n">
-        <v>758.236541287304</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N27" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O27" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R27" t="n">
         <v>1815.956238873899</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.301515678378</v>
+        <v>456.4851353109433</v>
       </c>
       <c r="C28" t="n">
-        <v>617.328952557294</v>
+        <v>284.5125721898594</v>
       </c>
       <c r="D28" t="n">
-        <v>454.0121796840647</v>
+        <v>121.1957993166301</v>
       </c>
       <c r="E28" t="n">
-        <v>287.8039738369183</v>
+        <v>121.1957993166301</v>
       </c>
       <c r="F28" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G28" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H28" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I28" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J28" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K28" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L28" t="n">
-        <v>608.6404166488189</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M28" t="n">
-        <v>1141.133580808129</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N28" t="n">
-        <v>1656.572487471408</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O28" t="n">
-        <v>1761.715039290495</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P28" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q28" t="n">
         <v>2191.665386213449</v>
@@ -6411,25 +6411,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S28" t="n">
-        <v>2037.559238250755</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T28" t="n">
-        <v>2037.559238250755</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U28" t="n">
-        <v>1757.424958450647</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V28" t="n">
-        <v>1475.713491058676</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="W28" t="n">
-        <v>1200.861087231189</v>
+        <v>1115.557768887462</v>
       </c>
       <c r="X28" t="n">
-        <v>1200.861087231189</v>
+        <v>872.9938723332669</v>
       </c>
       <c r="Y28" t="n">
-        <v>979.4674843904436</v>
+        <v>646.651104023009</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1298.999593960376</v>
+        <v>685.1672539132708</v>
       </c>
       <c r="C29" t="n">
-        <v>872.0988639736759</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="D29" t="n">
-        <v>872.0988639736759</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="E29" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F29" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G29" t="n">
         <v>43.83330772426899</v>
@@ -6460,22 +6460,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643842</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804925</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L29" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M29" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O29" t="n">
         <v>1667.064768900565</v>
@@ -6493,22 +6493,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T29" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U29" t="n">
-        <v>2116.056862837738</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="V29" t="n">
-        <v>2116.056862837738</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="W29" t="n">
-        <v>2116.056862837738</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.336864005485</v>
+        <v>1510.35288824991</v>
       </c>
       <c r="Y29" t="n">
-        <v>1298.999593960376</v>
+        <v>1105.015618204801</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K30" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M30" t="n">
-        <v>758.236541287304</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N30" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O30" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P30" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q30" t="n">
         <v>1667.176901360697</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.1226437185823</v>
+        <v>296.6961053952941</v>
       </c>
       <c r="C31" t="n">
-        <v>207.1500805974983</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D31" t="n">
-        <v>43.83330772426899</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E31" t="n">
-        <v>43.83330772426899</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F31" t="n">
         <v>43.83330772426899</v>
@@ -6624,22 +6624,22 @@
         <v>87.13587819270248</v>
       </c>
       <c r="K31" t="n">
-        <v>418.3963088502695</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L31" t="n">
-        <v>769.5665144189279</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M31" t="n">
-        <v>1302.059678578238</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N31" t="n">
-        <v>1419.465662399637</v>
+        <v>1258.082955204228</v>
       </c>
       <c r="O31" t="n">
-        <v>1902.310538521927</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
@@ -6663,10 +6663,10 @@
         <v>955.7687389718126</v>
       </c>
       <c r="X31" t="n">
-        <v>795.6313807409058</v>
+        <v>713.2048424176177</v>
       </c>
       <c r="Y31" t="n">
-        <v>569.2886124306478</v>
+        <v>486.8620741073597</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>846.8247444822758</v>
+        <v>847.642299368455</v>
       </c>
       <c r="C32" t="n">
-        <v>846.8247444822758</v>
+        <v>847.642299368455</v>
       </c>
       <c r="D32" t="n">
-        <v>846.8247444822758</v>
+        <v>424.3496785534553</v>
       </c>
       <c r="E32" t="n">
-        <v>420.8478046301334</v>
+        <v>424.3496785534553</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8478046301334</v>
+        <v>424.3496785534553</v>
       </c>
       <c r="G32" t="n">
         <v>43.83330772426899</v>
@@ -6718,10 +6718,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
@@ -6739,13 +6739,13 @@
         <v>1663.882013359638</v>
       </c>
       <c r="W32" t="n">
-        <v>1663.882013359638</v>
+        <v>1267.490663659985</v>
       </c>
       <c r="X32" t="n">
-        <v>1252.162014527386</v>
+        <v>1267.490663659985</v>
       </c>
       <c r="Y32" t="n">
-        <v>846.8247444822758</v>
+        <v>1267.490663659985</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J33" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K33" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M33" t="n">
-        <v>758.236541287304</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N33" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O33" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P33" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q33" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R33" t="n">
         <v>1815.956238873899</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9407234775822</v>
+        <v>381.1430810586854</v>
       </c>
       <c r="C34" t="n">
-        <v>754.9681603564982</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="D34" t="n">
-        <v>754.9681603564982</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="E34" t="n">
-        <v>588.7599545093517</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="F34" t="n">
-        <v>416.8981802839122</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G34" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H34" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I34" t="n">
         <v>43.83330772426899</v>
@@ -6861,49 +6861,49 @@
         <v>87.13587819270248</v>
       </c>
       <c r="K34" t="n">
-        <v>418.3963088502695</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L34" t="n">
-        <v>907.107593591763</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M34" t="n">
-        <v>1026.065277288251</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N34" t="n">
-        <v>1143.47126110965</v>
+        <v>1294.221574837508</v>
       </c>
       <c r="O34" t="n">
-        <v>1589.554333948619</v>
+        <v>1777.066450959798</v>
       </c>
       <c r="P34" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R34" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.982504260494</v>
+        <v>2116.323331961191</v>
       </c>
       <c r="T34" t="n">
-        <v>2141.000040681696</v>
+        <v>1876.91386565477</v>
       </c>
       <c r="U34" t="n">
-        <v>1860.865760881588</v>
+        <v>1596.779585854662</v>
       </c>
       <c r="V34" t="n">
-        <v>1860.865760881588</v>
+        <v>1315.068118462691</v>
       </c>
       <c r="W34" t="n">
-        <v>1586.013357054101</v>
+        <v>1040.215714635204</v>
       </c>
       <c r="X34" t="n">
-        <v>1343.449460499906</v>
+        <v>797.651818081009</v>
       </c>
       <c r="Y34" t="n">
-        <v>1117.106692189648</v>
+        <v>571.309049770751</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1148.115354224523</v>
+        <v>954.7597530445566</v>
       </c>
       <c r="C35" t="n">
-        <v>1148.115354224523</v>
+        <v>527.8590230578568</v>
       </c>
       <c r="D35" t="n">
-        <v>1148.115354224523</v>
+        <v>527.8590230578568</v>
       </c>
       <c r="E35" t="n">
-        <v>1148.115354224523</v>
+        <v>527.8590230578568</v>
       </c>
       <c r="F35" t="n">
-        <v>722.9911724139236</v>
+        <v>102.734841247257</v>
       </c>
       <c r="G35" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H35" t="n">
         <v>43.83330772426898</v>
       </c>
       <c r="I35" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J35" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M35" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N35" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O35" t="n">
         <v>1667.064768900565</v>
@@ -6964,25 +6964,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V35" t="n">
-        <v>1776.533215740615</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W35" t="n">
-        <v>1567.963718516053</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="X35" t="n">
-        <v>1567.963718516053</v>
+        <v>1779.945387381196</v>
       </c>
       <c r="Y35" t="n">
-        <v>1567.963718516053</v>
+        <v>1374.608117336087</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.83330772426898</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K36" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L36" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M36" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N36" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O36" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P36" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R36" t="n">
         <v>1815.956238873899</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>688.6236257432261</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C37" t="n">
-        <v>516.651062622142</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D37" t="n">
-        <v>516.651062622142</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E37" t="n">
-        <v>516.651062622142</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F37" t="n">
-        <v>344.7892883967024</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G37" t="n">
-        <v>179.45207818337</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H37" t="n">
         <v>43.83330772426898</v>
@@ -7095,19 +7095,19 @@
         <v>43.83330772426898</v>
       </c>
       <c r="J37" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270246</v>
       </c>
       <c r="K37" t="n">
-        <v>496.3180254984903</v>
+        <v>381.6345055669481</v>
       </c>
       <c r="L37" t="n">
-        <v>608.6404166488189</v>
+        <v>870.3457903084417</v>
       </c>
       <c r="M37" t="n">
-        <v>1141.133580808129</v>
+        <v>989.30347400493</v>
       </c>
       <c r="N37" t="n">
-        <v>1258.539564629528</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O37" t="n">
         <v>1589.554333948619</v>
@@ -7128,19 +7128,19 @@
         <v>1798.149771944334</v>
       </c>
       <c r="U37" t="n">
-        <v>1518.015492144225</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V37" t="n">
-        <v>1236.304024752254</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W37" t="n">
-        <v>1236.304024752254</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X37" t="n">
-        <v>993.7401281980593</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.7895944552918</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1319.150840336568</v>
+        <v>470.7340377109689</v>
       </c>
       <c r="C38" t="n">
-        <v>892.2501103498685</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="D38" t="n">
-        <v>468.9574895348688</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="E38" t="n">
-        <v>468.9574895348688</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F38" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G38" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H38" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I38" t="n">
         <v>87.10761271643841</v>
       </c>
       <c r="J38" t="n">
-        <v>228.5477172037499</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M38" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N38" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O38" t="n">
         <v>1667.064768900565</v>
@@ -7207,19 +7207,19 @@
         <v>2134.022630614366</v>
       </c>
       <c r="U38" t="n">
-        <v>1875.831756891841</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V38" t="n">
-        <v>1875.831756891841</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="W38" t="n">
-        <v>1724.488110381678</v>
+        <v>1707.639670879861</v>
       </c>
       <c r="X38" t="n">
-        <v>1724.488110381678</v>
+        <v>1295.919672047609</v>
       </c>
       <c r="Y38" t="n">
-        <v>1319.150840336568</v>
+        <v>890.582402002499</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H39" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I39" t="n">
         <v>88.30073447494337</v>
       </c>
       <c r="J39" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K39" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L39" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M39" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N39" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O39" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
         <v>1815.956238873899</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>754.9681603564982</v>
+        <v>545.2200606700843</v>
       </c>
       <c r="C40" t="n">
-        <v>754.9681603564982</v>
+        <v>545.2200606700843</v>
       </c>
       <c r="D40" t="n">
-        <v>754.9681603564982</v>
+        <v>381.903287796855</v>
       </c>
       <c r="E40" t="n">
-        <v>588.7599545093517</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F40" t="n">
-        <v>416.8981802839121</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G40" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I40" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J40" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>418.3963088502694</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L40" t="n">
-        <v>907.1075935917629</v>
+        <v>608.6404166488189</v>
       </c>
       <c r="M40" t="n">
-        <v>1026.065277288251</v>
+        <v>1141.133580808129</v>
       </c>
       <c r="N40" t="n">
-        <v>1541.50418395153</v>
+        <v>1656.572487471408</v>
       </c>
       <c r="O40" t="n">
-        <v>1902.310538521926</v>
+        <v>1761.715039290495</v>
       </c>
       <c r="P40" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q40" t="n">
         <v>2191.665386213449</v>
@@ -7362,22 +7362,22 @@
         <v>2037.559238250755</v>
       </c>
       <c r="T40" t="n">
-        <v>1798.149771944334</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="U40" t="n">
-        <v>1744.261896842217</v>
+        <v>1757.424958450647</v>
       </c>
       <c r="V40" t="n">
-        <v>1462.550429450246</v>
+        <v>1475.713491058676</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.698025622759</v>
+        <v>1200.861087231189</v>
       </c>
       <c r="X40" t="n">
-        <v>945.1341290685639</v>
+        <v>961.7287976924079</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.1341290685639</v>
+        <v>735.3860293821499</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>470.7340377109689</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="C41" t="n">
-        <v>43.83330772426899</v>
+        <v>1448.931026905142</v>
       </c>
       <c r="D41" t="n">
-        <v>43.83330772426899</v>
+        <v>1025.638406090142</v>
       </c>
       <c r="E41" t="n">
-        <v>43.83330772426899</v>
+        <v>599.6614662379994</v>
       </c>
       <c r="F41" t="n">
-        <v>43.83330772426899</v>
+        <v>174.5372844273996</v>
       </c>
       <c r="G41" t="n">
         <v>43.83330772426899</v>
@@ -7408,22 +7408,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I41" t="n">
-        <v>87.10761271643926</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J41" t="n">
-        <v>228.5477172037504</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K41" t="n">
-        <v>448.7747784804933</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L41" t="n">
-        <v>727.9824581050668</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M41" t="n">
-        <v>1043.801082832445</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N41" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O41" t="n">
         <v>1667.064768900565</v>
@@ -7441,22 +7441,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T41" t="n">
-        <v>1922.072887082163</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U41" t="n">
-        <v>1663.882013359638</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="V41" t="n">
-        <v>1663.882013359638</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="W41" t="n">
-        <v>1663.882013359638</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="X41" t="n">
-        <v>1252.162014527386</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="Y41" t="n">
-        <v>846.8247444822758</v>
+        <v>1875.831756891841</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K42" t="n">
-        <v>521.9522409288486</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L42" t="n">
-        <v>733.1290441215943</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M42" t="n">
-        <v>982.7079039592064</v>
+        <v>781.6938471317158</v>
       </c>
       <c r="N42" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O42" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P42" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1066.063817600836</v>
+        <v>926.9407234775822</v>
       </c>
       <c r="C43" t="n">
-        <v>894.0912544797523</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="D43" t="n">
         <v>754.9681603564982</v>
@@ -7569,22 +7569,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J43" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K43" t="n">
-        <v>418.3963088502694</v>
+        <v>381.6345055669486</v>
       </c>
       <c r="L43" t="n">
-        <v>907.1075935917629</v>
+        <v>870.3457903084421</v>
       </c>
       <c r="M43" t="n">
-        <v>1439.600757751073</v>
+        <v>989.3034740049304</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.006741572472</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O43" t="n">
-        <v>1902.310538521927</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P43" t="n">
         <v>1989.180585230913</v>
@@ -7596,25 +7596,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S43" t="n">
-        <v>2037.559238250755</v>
+        <v>2142.577228273559</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.559238250755</v>
+        <v>2142.577228273559</v>
       </c>
       <c r="U43" t="n">
-        <v>1757.424958450647</v>
+        <v>2142.577228273559</v>
       </c>
       <c r="V43" t="n">
-        <v>1757.424958450647</v>
+        <v>1860.865760881588</v>
       </c>
       <c r="W43" t="n">
-        <v>1482.57255462316</v>
+        <v>1586.013357054101</v>
       </c>
       <c r="X43" t="n">
-        <v>1482.57255462316</v>
+        <v>1343.449460499906</v>
       </c>
       <c r="Y43" t="n">
-        <v>1256.229786312902</v>
+        <v>1117.106692189648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>470.7340377109689</v>
+        <v>1721.439456733833</v>
       </c>
       <c r="C44" t="n">
-        <v>43.83330772426899</v>
+        <v>1294.538726747133</v>
       </c>
       <c r="D44" t="n">
-        <v>43.83330772426899</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="E44" t="n">
-        <v>43.83330772426899</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F44" t="n">
-        <v>43.83330772426899</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G44" t="n">
         <v>43.83330772426899</v>
@@ -7645,22 +7645,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I44" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643926</v>
       </c>
       <c r="J44" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037504</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804933</v>
       </c>
       <c r="L44" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050668</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N44" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O44" t="n">
         <v>1667.064768900565</v>
@@ -7681,19 +7681,19 @@
         <v>1922.072887082163</v>
       </c>
       <c r="U44" t="n">
-        <v>1922.072887082163</v>
+        <v>1721.439456733833</v>
       </c>
       <c r="V44" t="n">
-        <v>1922.072887082163</v>
+        <v>1721.439456733833</v>
       </c>
       <c r="W44" t="n">
-        <v>1525.68153738251</v>
+        <v>1721.439456733833</v>
       </c>
       <c r="X44" t="n">
-        <v>1113.961538550257</v>
+        <v>1721.439456733833</v>
       </c>
       <c r="Y44" t="n">
-        <v>708.6242685051476</v>
+        <v>1721.439456733833</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I45" t="n">
-        <v>88.30073447494337</v>
+        <v>64.84342863053153</v>
       </c>
       <c r="J45" t="n">
-        <v>169.4835916153554</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K45" t="n">
         <v>521.9522409288486</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>719.2130611312715</v>
+        <v>547.2404980101875</v>
       </c>
       <c r="C46" t="n">
         <v>547.2404980101875</v>
@@ -7806,22 +7806,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J46" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K46" t="n">
-        <v>418.3963088502694</v>
+        <v>249.0354163844682</v>
       </c>
       <c r="L46" t="n">
-        <v>907.1075935917629</v>
+        <v>371.5335915770477</v>
       </c>
       <c r="M46" t="n">
-        <v>1439.600757751073</v>
+        <v>904.0267557363577</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.006741572472</v>
+        <v>1419.465662399637</v>
       </c>
       <c r="O46" t="n">
-        <v>1662.149293391559</v>
+        <v>1902.310538521927</v>
       </c>
       <c r="P46" t="n">
         <v>1989.180585230913</v>
@@ -7830,28 +7830,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S46" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.466889991379</v>
+        <v>2043.011282606272</v>
       </c>
       <c r="U46" t="n">
-        <v>1708.50679761699</v>
+        <v>1762.877002806164</v>
       </c>
       <c r="V46" t="n">
-        <v>1426.795330225019</v>
+        <v>1481.165535414193</v>
       </c>
       <c r="W46" t="n">
-        <v>1151.942926397532</v>
+        <v>1206.313131586706</v>
       </c>
       <c r="X46" t="n">
-        <v>909.3790298433371</v>
+        <v>963.749235032511</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.3790298433371</v>
+        <v>737.4064667222531</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>203.0445018459498</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,19 +8856,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>265.6755599713746</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>79.57428074238348</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>226.7387501736386</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>10.27856973964714</v>
+        <v>241.8898970387577</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K18" t="n">
-        <v>203.0445018459499</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>331.1132856252009</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>249.3191916047701</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387584</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>113.4025158018216</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>120.218042815148</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>112.075818112894</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>279.4117019596239</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>226.7387501736387</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>241.8898970387584</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>142.0156557893251</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>120.2180428151481</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>241.2604186043736</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>365.5498012208084</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>344.3843646665478</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>279.4117019596239</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>212.6472786168694</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>228.1537550505093</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K39" t="n">
-        <v>203.0445018459502</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>258.2462654053628</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>142.0156557893251</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>96.52379448745955</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>133.9384739216973</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>242.5871162933012</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>226.7387501736388</v>
       </c>
       <c r="K45" t="n">
-        <v>203.0445018459502</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>10.27856973964734</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>242.5871162933012</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>332.5563825461689</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.1005558094662</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>100.1337410458842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>134.6466687611628</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S13" t="n">
-        <v>70.90960329751367</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>224.2267662732605</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>179.6553348399952</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.8302460968812</v>
@@ -23554,13 +23554,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>234.6275445386985</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>223.7724341923787</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>30.64397872721679</v>
       </c>
       <c r="D17" t="n">
-        <v>57.76483611570069</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.2657302332918</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U17" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>59.6739490447755</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
         <v>152.5650864830671</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>32.72684887380871</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
-        <v>274.1005558094662</v>
+        <v>138.6363290683607</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>366.8152536044493</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.6838381111991</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>211.6605248629249</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.6622582664613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>367.0303151858577</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>61.33686419568383</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>97.98240553310143</v>
       </c>
       <c r="W25" t="n">
-        <v>227.7194418244224</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>259.1844046042352</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>384.5584994522288</v>
       </c>
       <c r="G26" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>93.5542898067477</v>
       </c>
       <c r="G28" t="n">
         <v>163.6838381111991</v>
@@ -24621,7 +24621,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>5.62605313342555</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.899673814817646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>209.4282864133421</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24694,7 +24694,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H29" t="n">
         <v>274.1005558094662</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>237.8228548864377</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>90.0618242787435</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.6838381111991</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>81.6022729400552</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>25.02137829648603</v>
+        <v>21.55452311239736</v>
       </c>
       <c r="H32" t="n">
         <v>274.1005558094662</v>
@@ -24979,13 +24979,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S34" t="n">
-        <v>152.5650864830671</v>
+        <v>77.97645277333162</v>
       </c>
       <c r="T34" t="n">
-        <v>192.4827327003467</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>339.9532120455336</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T35" t="n">
         <v>209.8302460968812</v>
@@ -25213,16 +25213,16 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>185.9436339503403</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
         <v>71.38780296833761</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>84.43577114531843</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.2783122218155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.2657302332918</v>
@@ -25447,16 +25447,16 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>242.5972261575951</v>
+        <v>324.2228267905097</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
-        <v>223.9839406510116</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.397290945259812</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.32008094502089</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>268.8687932971924</v>
       </c>
       <c r="H41" t="n">
         <v>274.1005558094662</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>23.95174196247547</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>103.9678101225754</v>
       </c>
       <c r="T43" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.1385521623778</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.1005558094662</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6089649852995</v>
+        <v>56.98186894045242</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.84780907225152</v>
       </c>
       <c r="U46" t="n">
-        <v>194.2124455514622</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319102.8770814812</v>
+        <v>319102.8770814811</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>319102.8770814813</v>
+        <v>319102.8770814811</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>319102.8770814813</v>
+        <v>319102.8770814811</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>319102.8770814813</v>
+        <v>319102.8770814812</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>319102.8770814813</v>
+        <v>319102.8770814812</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>319102.8770814812</v>
+        <v>319102.8770814813</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>516381.4902713696</v>
+      </c>
+      <c r="C2" t="n">
         <v>516381.4902713695</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>516381.4902713696</v>
       </c>
-      <c r="D2" t="n">
-        <v>516381.4902713695</v>
-      </c>
       <c r="E2" t="n">
+        <v>312104.5832665568</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312104.5832665569</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312104.5832665568</v>
+      </c>
+      <c r="H2" t="n">
         <v>312104.583266557</v>
-      </c>
-      <c r="F2" t="n">
-        <v>312104.583266557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312104.5832665571</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312104.5832665569</v>
       </c>
       <c r="I2" t="n">
         <v>312104.583266557</v>
@@ -26340,22 +26340,22 @@
         <v>312104.5832665568</v>
       </c>
       <c r="K2" t="n">
-        <v>312104.5832665567</v>
+        <v>312104.5832665568</v>
       </c>
       <c r="L2" t="n">
         <v>312104.5832665569</v>
       </c>
       <c r="M2" t="n">
-        <v>312104.5832665568</v>
+        <v>312104.583266557</v>
       </c>
       <c r="N2" t="n">
         <v>312104.583266557</v>
       </c>
       <c r="O2" t="n">
-        <v>312104.5832665569</v>
+        <v>312104.583266557</v>
       </c>
       <c r="P2" t="n">
-        <v>312104.5832665569</v>
+        <v>312104.583266557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>569272.4739113377</v>
+        <v>569272.4739113376</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136542.9452264839</v>
+        <v>136542.9452264841</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26447,13 +26447,13 @@
         <v>24788.42735338781</v>
       </c>
       <c r="L4" t="n">
-        <v>24788.42735338782</v>
+        <v>24788.42735338781</v>
       </c>
       <c r="M4" t="n">
         <v>24788.42735338781</v>
       </c>
       <c r="N4" t="n">
-        <v>24788.42735338781</v>
+        <v>24788.42735338785</v>
       </c>
       <c r="O4" t="n">
         <v>24788.42735338782</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="H5" t="n">
         <v>44321.17942781076</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156087.7090601411</v>
+        <v>156065.9954186448</v>
       </c>
       <c r="C6" t="n">
-        <v>156087.7090601412</v>
+        <v>156065.9954186448</v>
       </c>
       <c r="D6" t="n">
-        <v>156087.7090601411</v>
+        <v>156065.9954186449</v>
       </c>
       <c r="E6" t="n">
-        <v>-326277.4974259792</v>
+        <v>-326866.6469202669</v>
       </c>
       <c r="F6" t="n">
-        <v>242994.9764853584</v>
+        <v>242405.8269910709</v>
       </c>
       <c r="G6" t="n">
-        <v>242994.9764853585</v>
+        <v>242405.8269910708</v>
       </c>
       <c r="H6" t="n">
-        <v>242994.9764853583</v>
+        <v>242405.8269910709</v>
       </c>
       <c r="I6" t="n">
-        <v>242994.9764853584</v>
+        <v>242405.8269910709</v>
       </c>
       <c r="J6" t="n">
-        <v>242994.9764853583</v>
+        <v>242405.8269910707</v>
       </c>
       <c r="K6" t="n">
-        <v>242994.9764853581</v>
+        <v>242405.8269910708</v>
       </c>
       <c r="L6" t="n">
-        <v>242994.9764853583</v>
+        <v>242405.8269910708</v>
       </c>
       <c r="M6" t="n">
-        <v>106452.0312588743</v>
+        <v>105862.8817645869</v>
       </c>
       <c r="N6" t="n">
-        <v>242994.9764853584</v>
+        <v>242405.8269910708</v>
       </c>
       <c r="O6" t="n">
-        <v>242994.9764853583</v>
+        <v>242405.826991071</v>
       </c>
       <c r="P6" t="n">
-        <v>242994.9764853583</v>
+        <v>242405.8269910709</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="G3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="H3" t="n">
         <v>504.9479613470796</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="G4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="H4" t="n">
         <v>547.9163465533624</v>
@@ -26825,7 +26825,7 @@
         <v>547.9163465533622</v>
       </c>
       <c r="N4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="O4" t="n">
         <v>547.9163465533624</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533617</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,43 +31758,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I11" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J11" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K11" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L11" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M11" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N11" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O11" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P11" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q11" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R11" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T11" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U11" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H12" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I12" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K12" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L12" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M12" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O12" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P12" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R12" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S12" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T12" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H13" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I13" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J13" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K13" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L13" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M13" t="n">
         <v>142.7347163525851</v>
@@ -31940,19 +31940,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R13" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S13" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T13" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,43 +31995,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I14" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J14" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K14" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L14" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M14" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N14" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O14" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P14" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q14" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R14" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T14" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U14" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H15" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I15" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J15" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K15" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L15" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M15" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N15" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O15" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P15" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R15" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S15" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T15" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H16" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I16" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J16" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K16" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L16" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M16" t="n">
         <v>142.7347163525851</v>
@@ -32177,19 +32177,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R16" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S16" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T16" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I17" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J17" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K17" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M17" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N17" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O17" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P17" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q17" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R17" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T17" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U17" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H18" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I18" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J18" t="n">
         <v>102.6140003337495</v>
@@ -32320,13 +32320,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L18" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M18" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N18" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
         <v>258.4142647093871</v>
@@ -32335,19 +32335,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R18" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S18" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T18" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I19" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J19" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K19" t="n">
         <v>105.7907368199291</v>
@@ -32414,19 +32414,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R19" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S19" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T19" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I41" t="n">
-        <v>78.25932172797388</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J41" t="n">
         <v>172.2887518970119</v>
@@ -34365,7 +34365,7 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I44" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797388</v>
       </c>
       <c r="J44" t="n">
         <v>172.2887518970119</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J11" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K11" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L11" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M11" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N11" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O11" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P11" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R11" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.91659267744888</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L12" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N12" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O12" t="n">
-        <v>438.2868768331147</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R12" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
-        <v>334.6064956137041</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L13" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M13" t="n">
-        <v>537.8718829892022</v>
+        <v>385.8348364324739</v>
       </c>
       <c r="N13" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O13" t="n">
-        <v>185.7788785394409</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P13" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.62757939862408</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J14" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K14" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L14" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M14" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N14" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O14" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P14" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R14" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041615</v>
+        <v>82.00288600041611</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L15" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M15" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N15" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O15" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q15" t="n">
-        <v>342.6332728945224</v>
+        <v>212.4183172083434</v>
       </c>
       <c r="R15" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K16" t="n">
-        <v>84.82608236721713</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L16" t="n">
-        <v>123.7355304975548</v>
+        <v>355.3468577966653</v>
       </c>
       <c r="M16" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
         <v>520.6453602659385</v>
@@ -35822,10 +35822,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P16" t="n">
-        <v>87.74752192826834</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J17" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K17" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L17" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M17" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N17" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O17" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P17" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K18" t="n">
-        <v>356.028938700498</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L18" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N18" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P18" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K19" t="n">
-        <v>84.82608236721713</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L19" t="n">
-        <v>113.4569607579077</v>
+        <v>444.5702463831085</v>
       </c>
       <c r="M19" t="n">
-        <v>537.8718829892022</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N19" t="n">
-        <v>367.911094454668</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O19" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.62757939862408</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K22" t="n">
         <v>84.82608236721711</v>
       </c>
       <c r="L22" t="n">
-        <v>493.647762365145</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M22" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N22" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O22" t="n">
-        <v>219.607113598879</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P22" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>183.0861762935706</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351944</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J24" t="n">
         <v>82.00288600041614</v>
@@ -36451,13 +36451,13 @@
         <v>261.1372468800477</v>
       </c>
       <c r="O24" t="n">
-        <v>355.4604178023129</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P24" t="n">
         <v>185.6293884284653</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R24" t="n">
         <v>150.2821591042453</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K25" t="n">
-        <v>196.9019004801111</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L25" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M25" t="n">
-        <v>120.1592764610993</v>
+        <v>399.5709784207232</v>
       </c>
       <c r="N25" t="n">
         <v>520.6453602659385</v>
@@ -36533,10 +36533,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P25" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>183.0861762935706</v>
       </c>
       <c r="R26" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351944</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00288600041614</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
@@ -36691,13 +36691,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
-        <v>412.368138602104</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q27" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K28" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4569607579076</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M28" t="n">
         <v>537.871882989202</v>
@@ -36767,13 +36767,13 @@
         <v>520.6453602659385</v>
       </c>
       <c r="O28" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P28" t="n">
-        <v>229.7631777175935</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>282.027959216741</v>
       </c>
       <c r="M29" t="n">
-        <v>319.0087118458367</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N29" t="n">
         <v>324.927923348721</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041614</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
@@ -36931,7 +36931,7 @@
         <v>185.6293884284653</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.1125655360319</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
         <v>150.2821591042453</v>
@@ -36992,25 +36992,25 @@
         <v>43.73997017013482</v>
       </c>
       <c r="K31" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L31" t="n">
-        <v>354.7173793622812</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M31" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N31" t="n">
-        <v>118.5919028498979</v>
+        <v>484.1417040707063</v>
       </c>
       <c r="O31" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P31" t="n">
-        <v>87.74752192826834</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>324.927923348721</v>
       </c>
       <c r="O32" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079673</v>
       </c>
       <c r="P32" t="n">
         <v>254.3327709602681</v>
@@ -37092,7 +37092,7 @@
         <v>183.0861762935706</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351944</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J33" t="n">
-        <v>82.00288600041614</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
@@ -37168,10 +37168,10 @@
         <v>185.6293884284653</v>
       </c>
       <c r="Q33" t="n">
-        <v>342.6332728945226</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R33" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>43.73997017013482</v>
       </c>
       <c r="K34" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L34" t="n">
         <v>493.647762365145</v>
@@ -37238,16 +37238,16 @@
         <v>120.1592764610993</v>
       </c>
       <c r="N34" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O34" t="n">
-        <v>450.5889624636052</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P34" t="n">
-        <v>403.6628800831245</v>
+        <v>367.1592238878923</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>82.00288600041614</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
@@ -37393,7 +37393,7 @@
         <v>213.3099022148948</v>
       </c>
       <c r="M36" t="n">
-        <v>478.8386085954691</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N36" t="n">
         <v>261.1372468800477</v>
@@ -37408,7 +37408,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R36" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K37" t="n">
-        <v>334.6064956137041</v>
+        <v>297.4733609840865</v>
       </c>
       <c r="L37" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M37" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N37" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O37" t="n">
-        <v>334.3583528475668</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P37" t="n">
         <v>403.6628800831245</v>
@@ -37542,7 +37542,7 @@
         <v>43.71141918400951</v>
       </c>
       <c r="J38" t="n">
-        <v>142.8687924114257</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K38" t="n">
         <v>222.4515770472151</v>
@@ -37566,7 +37566,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351989</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J39" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K39" t="n">
-        <v>356.0289387004983</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L39" t="n">
         <v>213.3099022148947</v>
@@ -37645,7 +37645,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
         <v>334.6064956137041</v>
       </c>
       <c r="L40" t="n">
-        <v>493.647762365145</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M40" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N40" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O40" t="n">
-        <v>364.4508632024202</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P40" t="n">
-        <v>87.74752192826833</v>
+        <v>229.7631777175935</v>
       </c>
       <c r="Q40" t="n">
         <v>204.5301020025625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.71141918401037</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J41" t="n">
         <v>142.8687924114253</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J42" t="n">
         <v>82.00288600041613</v>
       </c>
       <c r="K42" t="n">
-        <v>379.7231870281869</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L42" t="n">
         <v>213.3099022148947</v>
@@ -37879,10 +37879,10 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q42" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083434</v>
       </c>
       <c r="R42" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K43" t="n">
-        <v>334.6064956137041</v>
+        <v>218.7645562889144</v>
       </c>
       <c r="L43" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M43" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N43" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O43" t="n">
-        <v>348.7917140903587</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P43" t="n">
-        <v>87.74752192826833</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q43" t="n">
         <v>204.5301020025625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918401037</v>
       </c>
       <c r="J44" t="n">
         <v>142.8687924114253</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.91659267744888</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J45" t="n">
-        <v>82.00288600041613</v>
+        <v>308.741636174055</v>
       </c>
       <c r="K45" t="n">
-        <v>356.0289387004983</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L45" t="n">
         <v>213.3099022148947</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K46" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L46" t="n">
-        <v>493.647762365145</v>
+        <v>123.735530497555</v>
       </c>
       <c r="M46" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N46" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O46" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P46" t="n">
-        <v>330.3346382215695</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q46" t="n">
         <v>204.5301020025625</v>
